--- a/dados/ibge_prod.xlsx
+++ b/dados/ibge_prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8D524D7-A704-4E8C-B0F1-DE76BFF7F4ED}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF90DFD-643D-4814-B95F-E3807314DF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,11 +214,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -521,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:I48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -533,7 +534,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -556,7 +557,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -576,11 +577,11 @@
         <v>13654117</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:F2)/3</f>
-        <v>20144614.666666668</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B2:F2)/5</f>
+        <v>12086768.800000001</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -600,11 +601,12 @@
         <v>1476000</v>
       </c>
       <c r="G3">
-        <f t="shared" ref="G3:G48" si="0">SUM(B3:F3)/3</f>
-        <v>2077900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <f>SUM(B3:F3)/5</f>
+        <v>1246740</v>
+      </c>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -624,11 +626,11 @@
         <v>1078800</v>
       </c>
       <c r="G4">
-        <f t="shared" si="0"/>
-        <v>1762366.6666666667</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G4:G48" si="0">SUM(B4:F4)/5</f>
+        <v>1057420</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -649,10 +651,10 @@
       </c>
       <c r="G5">
         <f t="shared" si="0"/>
-        <v>1431683.3333333333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>859010</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -673,10 +675,10 @@
       </c>
       <c r="G6">
         <f t="shared" si="0"/>
-        <v>765780</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>459468</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -697,10 +699,10 @@
       </c>
       <c r="G7">
         <f t="shared" si="0"/>
-        <v>659660</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+        <v>395796</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -721,10 +723,10 @@
       </c>
       <c r="G8">
         <f t="shared" si="0"/>
-        <v>675133.33333333337</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+        <v>405080</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -745,10 +747,10 @@
       </c>
       <c r="G9">
         <f t="shared" si="0"/>
-        <v>534966.66666666663</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320980</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -769,10 +771,10 @@
       </c>
       <c r="G10">
         <f t="shared" si="0"/>
-        <v>580350</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>348210</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -793,10 +795,10 @@
       </c>
       <c r="G11">
         <f t="shared" si="0"/>
-        <v>346166.66666666669</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+        <v>207700</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -817,10 +819,10 @@
       </c>
       <c r="G12">
         <f t="shared" si="0"/>
-        <v>555133.33333333337</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>333080</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -841,10 +843,10 @@
       </c>
       <c r="G13">
         <f t="shared" si="0"/>
-        <v>436466.66666666669</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>261880</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -865,10 +867,10 @@
       </c>
       <c r="G14">
         <f t="shared" si="0"/>
-        <v>428536.66666666669</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>257122</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -889,10 +891,10 @@
       </c>
       <c r="G15">
         <f t="shared" si="0"/>
-        <v>368266.66666666669</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>220960</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -913,7 +915,7 @@
       </c>
       <c r="G16">
         <f t="shared" si="0"/>
-        <v>335410</v>
+        <v>201246</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -937,7 +939,7 @@
       </c>
       <c r="G17">
         <f t="shared" si="0"/>
-        <v>395650</v>
+        <v>237390</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -961,7 +963,7 @@
       </c>
       <c r="G18">
         <f t="shared" si="0"/>
-        <v>361933.33333333331</v>
+        <v>217160</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -985,7 +987,7 @@
       </c>
       <c r="G19">
         <f t="shared" si="0"/>
-        <v>217236.66666666666</v>
+        <v>130342</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1009,7 +1011,7 @@
       </c>
       <c r="G20">
         <f t="shared" si="0"/>
-        <v>273940</v>
+        <v>164364</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1033,7 +1035,7 @@
       </c>
       <c r="G21">
         <f t="shared" si="0"/>
-        <v>289300</v>
+        <v>173580</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1057,7 +1059,7 @@
       </c>
       <c r="G22">
         <f t="shared" si="0"/>
-        <v>310426.66666666669</v>
+        <v>186256</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1081,7 +1083,7 @@
       </c>
       <c r="G23">
         <f t="shared" si="0"/>
-        <v>273833.33333333331</v>
+        <v>164300</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1105,7 +1107,7 @@
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>207666.66666666666</v>
+        <v>124600</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1129,7 +1131,7 @@
       </c>
       <c r="G25">
         <f t="shared" si="0"/>
-        <v>223900</v>
+        <v>134340</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1153,7 +1155,7 @@
       </c>
       <c r="G26">
         <f t="shared" si="0"/>
-        <v>238593.33333333334</v>
+        <v>143156</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1177,7 +1179,7 @@
       </c>
       <c r="G27">
         <f t="shared" si="0"/>
-        <v>204606.66666666666</v>
+        <v>122764</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1201,7 +1203,7 @@
       </c>
       <c r="G28">
         <f t="shared" si="0"/>
-        <v>176746.66666666666</v>
+        <v>106048</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1225,7 +1227,7 @@
       </c>
       <c r="G29">
         <f t="shared" si="0"/>
-        <v>132271.33333333334</v>
+        <v>79362.8</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1249,7 +1251,7 @@
       </c>
       <c r="G30">
         <f t="shared" si="0"/>
-        <v>174966.66666666666</v>
+        <v>104980</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1273,7 +1275,7 @@
       </c>
       <c r="G31">
         <f t="shared" si="0"/>
-        <v>164633.33333333334</v>
+        <v>98780</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1297,7 +1299,7 @@
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>170200</v>
+        <v>102120</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1321,7 +1323,7 @@
       </c>
       <c r="G33">
         <f t="shared" si="0"/>
-        <v>153346.66666666666</v>
+        <v>92008</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1345,7 +1347,7 @@
       </c>
       <c r="G34">
         <f t="shared" si="0"/>
-        <v>141300</v>
+        <v>84780</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1369,7 +1371,7 @@
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>173073.33333333334</v>
+        <v>103844</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1393,7 +1395,7 @@
       </c>
       <c r="G36">
         <f t="shared" si="0"/>
-        <v>177900</v>
+        <v>106740</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1417,7 +1419,7 @@
       </c>
       <c r="G37">
         <f t="shared" si="0"/>
-        <v>134150</v>
+        <v>80490</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1441,7 +1443,7 @@
       </c>
       <c r="G38">
         <f t="shared" si="0"/>
-        <v>193356</v>
+        <v>116013.6</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1465,7 +1467,7 @@
       </c>
       <c r="G39">
         <f t="shared" si="0"/>
-        <v>144033.33333333334</v>
+        <v>86420</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1489,7 +1491,7 @@
       </c>
       <c r="G40">
         <f t="shared" si="0"/>
-        <v>119420</v>
+        <v>71652</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1513,7 +1515,7 @@
       </c>
       <c r="G41">
         <f t="shared" si="0"/>
-        <v>122686.66666666667</v>
+        <v>73612</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1537,7 +1539,7 @@
       </c>
       <c r="G42">
         <f t="shared" si="0"/>
-        <v>130600</v>
+        <v>78360</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1561,7 +1563,7 @@
       </c>
       <c r="G43">
         <f t="shared" si="0"/>
-        <v>129100</v>
+        <v>77460</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1585,7 +1587,7 @@
       </c>
       <c r="G44">
         <f t="shared" si="0"/>
-        <v>190360</v>
+        <v>114216</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1609,7 +1611,7 @@
       </c>
       <c r="G45">
         <f t="shared" si="0"/>
-        <v>111146.66666666667</v>
+        <v>66688</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1633,7 +1635,7 @@
       </c>
       <c r="G46">
         <f t="shared" si="0"/>
-        <v>107245</v>
+        <v>64347</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1657,7 +1659,7 @@
       </c>
       <c r="G47">
         <f t="shared" si="0"/>
-        <v>106183.33333333333</v>
+        <v>63710</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1681,10 +1683,11 @@
       </c>
       <c r="G48">
         <f t="shared" si="0"/>
-        <v>102726.66666666667</v>
+        <v>61636</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/dados/ibge_prod.xlsx
+++ b/dados/ibge_prod.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bibliotecas\Documents\IC\Progs\dados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BF90DFD-643D-4814-B95F-E3807314DF09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D84C2FED-ADFB-46BE-8A76-8DEF415282F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -214,12 +214,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,10 +521,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I48"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -534,7 +533,7 @@
     <col min="2" max="2" width="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -557,7 +556,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -577,11 +576,10 @@
         <v>13654117</v>
       </c>
       <c r="G2">
-        <f>SUM(B2:F2)/5</f>
-        <v>12086768.800000001</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>7756720.663999998</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -601,12 +599,10 @@
         <v>1476000</v>
       </c>
       <c r="G3">
-        <f>SUM(B3:F3)/5</f>
-        <v>1246740</v>
-      </c>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+        <v>947522.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -626,11 +622,10 @@
         <v>1078800</v>
       </c>
       <c r="G4">
-        <f t="shared" ref="G4:G48" si="0">SUM(B4:F4)/5</f>
-        <v>1057420</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+        <v>803639.2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -650,11 +645,10 @@
         <v>993750</v>
       </c>
       <c r="G5">
-        <f t="shared" si="0"/>
-        <v>859010</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <v>652847.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -674,11 +668,10 @@
         <v>468600</v>
       </c>
       <c r="G6">
-        <f t="shared" si="0"/>
-        <v>459468</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+        <v>349195.68</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -698,11 +691,10 @@
         <v>396000</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
-        <v>395796</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+        <v>300804.96000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -722,11 +714,10 @@
         <v>460000</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
-        <v>405080</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+        <v>307860.8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -746,11 +737,10 @@
         <v>331200</v>
       </c>
       <c r="G9">
-        <f t="shared" si="0"/>
-        <v>320980</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+        <v>243944.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -770,11 +760,10 @@
         <v>360000</v>
       </c>
       <c r="G10">
-        <f t="shared" si="0"/>
-        <v>348210</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+        <v>264639.59999999998</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>10</v>
       </c>
@@ -794,11 +783,10 @@
         <v>131000</v>
       </c>
       <c r="G11">
-        <f t="shared" si="0"/>
-        <v>207700</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+        <v>157852</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>11</v>
       </c>
@@ -818,11 +806,10 @@
         <v>381900</v>
       </c>
       <c r="G12">
-        <f t="shared" si="0"/>
-        <v>333080</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+        <v>253140.80000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>12</v>
       </c>
@@ -842,11 +829,10 @@
         <v>306000</v>
       </c>
       <c r="G13">
-        <f t="shared" si="0"/>
-        <v>261880</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+        <v>199028.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>13</v>
       </c>
@@ -866,11 +852,10 @@
         <v>269800</v>
       </c>
       <c r="G14">
-        <f t="shared" si="0"/>
-        <v>257122</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+        <v>195412.72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>14</v>
       </c>
@@ -890,11 +875,10 @@
         <v>208000</v>
       </c>
       <c r="G15">
-        <f t="shared" si="0"/>
-        <v>220960</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+        <v>167929.60000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>15</v>
       </c>
@@ -914,8 +898,7 @@
         <v>221400</v>
       </c>
       <c r="G16">
-        <f t="shared" si="0"/>
-        <v>201246</v>
+        <v>152946.96</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -938,8 +921,7 @@
         <v>276000</v>
       </c>
       <c r="G17">
-        <f t="shared" si="0"/>
-        <v>237390</v>
+        <v>180416.4</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -962,8 +944,7 @@
         <v>247000</v>
       </c>
       <c r="G18">
-        <f t="shared" si="0"/>
-        <v>217160</v>
+        <v>165041.60000000001</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -986,8 +967,7 @@
         <v>124250</v>
       </c>
       <c r="G19">
-        <f t="shared" si="0"/>
-        <v>130342</v>
+        <v>99059.92</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1010,8 +990,7 @@
         <v>188700</v>
       </c>
       <c r="G20">
-        <f t="shared" si="0"/>
-        <v>164364</v>
+        <v>124916.64</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1034,8 +1013,7 @@
         <v>210000</v>
       </c>
       <c r="G21">
-        <f t="shared" si="0"/>
-        <v>173580</v>
+        <v>131920.79999999999</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -1058,8 +1036,7 @@
         <v>233100</v>
       </c>
       <c r="G22">
-        <f t="shared" si="0"/>
-        <v>186256</v>
+        <v>141554.56</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
@@ -1082,8 +1059,7 @@
         <v>179200</v>
       </c>
       <c r="G23">
-        <f t="shared" si="0"/>
-        <v>164300</v>
+        <v>124868</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
@@ -1106,8 +1082,7 @@
         <v>125000</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
-        <v>124600</v>
+        <v>94696</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
@@ -1130,8 +1105,7 @@
         <v>144000</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
-        <v>134340</v>
+        <v>102098.4</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
@@ -1154,8 +1128,7 @@
         <v>160000</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
-        <v>143156</v>
+        <v>108798.56</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
@@ -1178,8 +1151,7 @@
         <v>145090</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
-        <v>122764</v>
+        <v>93300.64</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
@@ -1202,8 +1174,7 @@
         <v>118800</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
-        <v>106048</v>
+        <v>80596.479999999996</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
@@ -1226,8 +1197,7 @@
         <v>70114</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
-        <v>79362.8</v>
+        <v>60315.728000000003</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
@@ -1250,8 +1220,7 @@
         <v>102400</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
-        <v>104980</v>
+        <v>79784.800000000003</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1274,8 +1243,7 @@
         <v>103600</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
-        <v>98780</v>
+        <v>75072.800000000003</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1298,8 +1266,7 @@
         <v>105600</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
-        <v>102120</v>
+        <v>77611.199999999997</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
@@ -1322,8 +1289,7 @@
         <v>95940</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
-        <v>92008</v>
+        <v>69926.080000000002</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -1346,8 +1312,7 @@
         <v>92400</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
-        <v>84780</v>
+        <v>64432.800000000003</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -1370,8 +1335,7 @@
         <v>124200</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
-        <v>103844</v>
+        <v>78921.440000000002</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
@@ -1394,8 +1358,7 @@
         <v>115500</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
-        <v>106740</v>
+        <v>81122.399999999994</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
@@ -1418,8 +1381,7 @@
         <v>85500</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
-        <v>80490</v>
+        <v>61172.4</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
@@ -1442,8 +1404,7 @@
         <v>144000</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
-        <v>116013.6</v>
+        <v>88170.33600000001</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
@@ -1466,8 +1427,7 @@
         <v>92400</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
-        <v>86420</v>
+        <v>65679.199999999997</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
@@ -1490,8 +1450,7 @@
         <v>78480</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
-        <v>71652</v>
+        <v>54455.520000000004</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
@@ -1514,8 +1473,7 @@
         <v>88200</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
-        <v>73612</v>
+        <v>55945.120000000003</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -1538,8 +1496,7 @@
         <v>85800</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
-        <v>78360</v>
+        <v>59553.599999999999</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -1562,8 +1519,7 @@
         <v>93000</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
-        <v>77460</v>
+        <v>58869.599999999999</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -1586,8 +1542,7 @@
         <v>162000</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
-        <v>114216</v>
+        <v>86804.160000000003</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -1610,8 +1565,7 @@
         <v>88580</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
-        <v>66688</v>
+        <v>50682.879999999997</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -1634,8 +1588,7 @@
         <v>89535</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
-        <v>64347</v>
+        <v>48903.72</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
@@ -1658,8 +1611,7 @@
         <v>98700</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
-        <v>63710</v>
+        <v>48419.6</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -1682,8 +1634,7 @@
         <v>77000</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
-        <v>61636</v>
+        <v>46843.360000000001</v>
       </c>
     </row>
   </sheetData>
